--- a/Stimuli/block6_stim_path.xlsx
+++ b/Stimuli/block6_stim_path.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t>image</t>
   </si>
@@ -23,244 +23,484 @@
     <t>corrAns</t>
   </si>
   <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target215.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target201.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target229.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor218.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor230.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor224.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor225.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor231.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor219.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target228.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target214.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target202.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target216.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor227.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor233.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor232.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor226.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target217.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target203.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target207.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target213.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor222.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor236.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor237.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor223.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target212.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target206.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target238.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target210.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target204.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor235.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor221.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor209.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor208.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor220.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor234.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target205.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target211.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target239.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor240.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target240.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target234.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target220.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target208.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor239.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor211.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor205.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor204.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor210.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor238.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target209.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target221.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target235.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target223.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target237.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor206.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor212.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor213.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor207.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target236.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target222.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target226.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target232.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor203.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor217.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor216.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor202.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target233.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target227.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target219.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target231.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target225.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor214.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor228.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor229.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor201.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/distractor215.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target224.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target230.jpg</t>
-  </si>
-  <si>
-    <t>/Users/nicolehan/Documents/Research/Explainable AI/Stimuli/block6/target218.jpg</t>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor422.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor436.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target407.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target413.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target412.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target406.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor437.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor423.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor409.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor435.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor421.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target410.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target404.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target438.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target439.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target405.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target411.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor420.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor434.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor408.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor430.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor424.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor418.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target429.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target415.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target401.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target414.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target428.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor419.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor425.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor431.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor427.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor433.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target402.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target416.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target417.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target403.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor432.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor426.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor469.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor441.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor455.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target464.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target470.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target458.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target459.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target471.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target465.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor454.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor440.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor468.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor456.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor442.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target473.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target467.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target466.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target472.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor480.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor443.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor457.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor453.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor447.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target476.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target462.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target463.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target477.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor446.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor452.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor444.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor450.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor478.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target449.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target461.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target475.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target474.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target460.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target448.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor479.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor451.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor445.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor448.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor460.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor474.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target445.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target451.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target479.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target478.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target450.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target444.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor475.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor461.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor449.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor477.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor463.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target452.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target446.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target447.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target453.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor462.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor476.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor472.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor466.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target480.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target457.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target443.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target442.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target456.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor467.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor473.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor465.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor471.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor459.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target468.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target440.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target454.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target455.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target441.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target469.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor458.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor470.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor464.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor403.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor417.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target426.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target432.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target433.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target427.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor416.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor402.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor428.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor414.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target431.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target425.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target419.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target418.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target424.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target430.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor401.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor415.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor429.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor411.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor405.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor439.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target408.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target434.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target420.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target421.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target435.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target409.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor438.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor404.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor410.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor406.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor412.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target423.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target437.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target436.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/target422.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor413.jpg</t>
+  </si>
+  <si>
+    <t>/Users/nicolehan/Documents/Research/explainableAI_script/Stimuli/block6/distractor407.jpg</t>
   </si>
 </sst>
 </file>
@@ -609,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -654,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -662,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -670,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -702,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -734,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +982,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +1006,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +1022,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +1030,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -814,7 +1054,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -822,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -854,7 +1094,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +1102,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -894,7 +1134,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -926,7 +1166,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +1174,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -950,7 +1190,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +1198,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -982,7 +1222,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +1230,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +1238,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1006,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1030,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1278,7 @@
         <v>53</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1070,7 +1310,7 @@
         <v>57</v>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1318,7 @@
         <v>58</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1102,7 +1342,7 @@
         <v>61</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1110,7 +1350,7 @@
         <v>62</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1358,7 @@
         <v>63</v>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1134,7 +1374,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1382,7 @@
         <v>66</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1390,7 @@
         <v>67</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1166,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1414,7 @@
         <v>70</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1422,7 @@
         <v>71</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1430,7 @@
         <v>72</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1206,7 +1446,7 @@
         <v>74</v>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1454,7 @@
         <v>75</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1462,7 @@
         <v>76</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1470,7 @@
         <v>77</v>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1478,7 @@
         <v>78</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1486,7 @@
         <v>79</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1254,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="B80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1262,7 +1502,647 @@
         <v>81</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
